--- a/results.xlsx
+++ b/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Human.GO" sheetId="1" r:id="rId1"/>
-    <sheet name="Human.T" sheetId="3" r:id="rId2"/>
-    <sheet name="Human.H" sheetId="4" r:id="rId3"/>
-    <sheet name="Human.GO.H.T" sheetId="2" r:id="rId4"/>
+    <sheet name="Human.T.Raw.500Features" sheetId="7" r:id="rId2"/>
+    <sheet name="Human.H.Raw.500Features" sheetId="8" r:id="rId3"/>
+    <sheet name="Human.PPI.Raw.500Features" sheetId="9" r:id="rId4"/>
+    <sheet name="Human.Go.500Feat.SMOTE" sheetId="6" r:id="rId5"/>
+    <sheet name="Human.Go.Random.300features" sheetId="5" r:id="rId6"/>
+    <sheet name="Human.T" sheetId="3" r:id="rId7"/>
+    <sheet name="Human.H" sheetId="4" r:id="rId8"/>
+    <sheet name="Human.GO.H.T" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="64">
   <si>
     <t>Gene set</t>
   </si>
@@ -207,6 +212,18 @@
   </si>
   <si>
     <t>MIN</t>
+  </si>
+  <si>
+    <t>Gene Set</t>
+  </si>
+  <si>
+    <t>Average AUC</t>
+  </si>
+  <si>
+    <t>Max AUC</t>
+  </si>
+  <si>
+    <t>Min AUC</t>
   </si>
 </sst>
 </file>
@@ -534,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,9 +2564,3846 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>495</v>
+      </c>
+      <c r="C2">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(C2:C53)</f>
+        <v>0.53992307692307684</v>
+      </c>
+      <c r="F2">
+        <f>MAX(C2:C53)</f>
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="G2">
+        <f>MIN(C2:C53)</f>
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>513</v>
+      </c>
+      <c r="C3">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>499</v>
+      </c>
+      <c r="C4">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>498</v>
+      </c>
+      <c r="C5">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>496</v>
+      </c>
+      <c r="C6">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>498</v>
+      </c>
+      <c r="C7">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>501</v>
+      </c>
+      <c r="C9">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>502</v>
+      </c>
+      <c r="C10">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>504</v>
+      </c>
+      <c r="C11">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>498</v>
+      </c>
+      <c r="C12">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>500</v>
+      </c>
+      <c r="C13">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>496</v>
+      </c>
+      <c r="C14">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>501</v>
+      </c>
+      <c r="C15">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>499</v>
+      </c>
+      <c r="C16">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>498</v>
+      </c>
+      <c r="C17">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>493</v>
+      </c>
+      <c r="C18">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>501</v>
+      </c>
+      <c r="C19">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>500</v>
+      </c>
+      <c r="C20">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>499</v>
+      </c>
+      <c r="C21">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>501</v>
+      </c>
+      <c r="C22">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>495</v>
+      </c>
+      <c r="C23">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>500</v>
+      </c>
+      <c r="C24">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>468</v>
+      </c>
+      <c r="C25">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>499</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>499</v>
+      </c>
+      <c r="C27">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>470</v>
+      </c>
+      <c r="C28">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>501</v>
+      </c>
+      <c r="C29">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>491</v>
+      </c>
+      <c r="C30">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>504</v>
+      </c>
+      <c r="C31">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>501</v>
+      </c>
+      <c r="C32">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>507</v>
+      </c>
+      <c r="C33">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>500</v>
+      </c>
+      <c r="C34">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>499</v>
+      </c>
+      <c r="C35">
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>501</v>
+      </c>
+      <c r="C36">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>493</v>
+      </c>
+      <c r="C37">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>500</v>
+      </c>
+      <c r="C38">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>498</v>
+      </c>
+      <c r="C39">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>500</v>
+      </c>
+      <c r="C40">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>500</v>
+      </c>
+      <c r="C41">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>494</v>
+      </c>
+      <c r="C42">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>503</v>
+      </c>
+      <c r="C43">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>499</v>
+      </c>
+      <c r="C44">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>499</v>
+      </c>
+      <c r="C45">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>507</v>
+      </c>
+      <c r="C46">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>503</v>
+      </c>
+      <c r="C47">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>499</v>
+      </c>
+      <c r="C48">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>505</v>
+      </c>
+      <c r="C49">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>498</v>
+      </c>
+      <c r="C50">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>500</v>
+      </c>
+      <c r="C51">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>500</v>
+      </c>
+      <c r="C52">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>503</v>
+      </c>
+      <c r="C53">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B2:B53)</f>
+        <v>0.54415384615384621</v>
+      </c>
+      <c r="E2">
+        <f>MAX(B2:B53)</f>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F2">
+        <f>MIN(B2:B53)</f>
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0.56299999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B2:B53)</f>
+        <v>0.50930769230769246</v>
+      </c>
+      <c r="E2">
+        <f>MAX(B2:B53)</f>
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F2">
+        <f>MIN(B2:B53)</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>453</v>
+      </c>
+      <c r="C2">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(C2:C53)</f>
+        <v>0.47367307692307692</v>
+      </c>
+      <c r="F2">
+        <f>MAX(C2:C53)</f>
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="G2">
+        <f>MIN(C2:C53)</f>
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>514</v>
+      </c>
+      <c r="C3">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>369</v>
+      </c>
+      <c r="C5">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>472</v>
+      </c>
+      <c r="C6">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>568</v>
+      </c>
+      <c r="C7">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>454</v>
+      </c>
+      <c r="C8">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>358</v>
+      </c>
+      <c r="C9">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>504</v>
+      </c>
+      <c r="C10">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>488</v>
+      </c>
+      <c r="C11">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>599</v>
+      </c>
+      <c r="C12">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>401</v>
+      </c>
+      <c r="C13">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>463</v>
+      </c>
+      <c r="C14">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>420</v>
+      </c>
+      <c r="C15">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>571</v>
+      </c>
+      <c r="C16">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>467</v>
+      </c>
+      <c r="C17">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>479</v>
+      </c>
+      <c r="C18">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>501</v>
+      </c>
+      <c r="C19">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>605</v>
+      </c>
+      <c r="C20">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>540</v>
+      </c>
+      <c r="C21">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>373</v>
+      </c>
+      <c r="C22">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>418</v>
+      </c>
+      <c r="C23">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>425</v>
+      </c>
+      <c r="C24">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>521</v>
+      </c>
+      <c r="C25">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>398</v>
+      </c>
+      <c r="C26">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>629</v>
+      </c>
+      <c r="C27">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>345</v>
+      </c>
+      <c r="C28">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>575</v>
+      </c>
+      <c r="C29">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>523</v>
+      </c>
+      <c r="C30">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>430</v>
+      </c>
+      <c r="C31">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>474</v>
+      </c>
+      <c r="C32">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>491</v>
+      </c>
+      <c r="C33">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>581</v>
+      </c>
+      <c r="C34">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>562</v>
+      </c>
+      <c r="C35">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>594</v>
+      </c>
+      <c r="C36">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>497</v>
+      </c>
+      <c r="C37">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>483</v>
+      </c>
+      <c r="C38">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>399</v>
+      </c>
+      <c r="C39">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>387</v>
+      </c>
+      <c r="C40">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>474</v>
+      </c>
+      <c r="C41">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>501</v>
+      </c>
+      <c r="C42">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>392</v>
+      </c>
+      <c r="C43">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>400</v>
+      </c>
+      <c r="C44">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>449</v>
+      </c>
+      <c r="C45">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>511</v>
+      </c>
+      <c r="C46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>498</v>
+      </c>
+      <c r="C47">
+        <v>0.48299999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>369</v>
+      </c>
+      <c r="C48">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>540</v>
+      </c>
+      <c r="C49">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>468</v>
+      </c>
+      <c r="C50">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>476</v>
+      </c>
+      <c r="C51">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>604</v>
+      </c>
+      <c r="C52">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>467</v>
+      </c>
+      <c r="C53">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A159">
+    <sortCondition ref="A1:A159"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G160"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(B2,B3,B4)</f>
+        <v>0.37566666666666665</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:B160)</f>
+        <v>0.39412345679012356</v>
+      </c>
+      <c r="F2">
+        <f>MIN(C2:C80)</f>
+        <v>0.25333333333333335</v>
+      </c>
+      <c r="G2">
+        <f>MAX(C2:C80)</f>
+        <v>0.53133333333333332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.46</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(B5,B6,B7)</f>
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0.46</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE(B8,B9,B10)</f>
+        <v>0.45166666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(B11,B12,B13)</f>
+        <v>0.49466666666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0.437</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(B14,B15,B16)</f>
+        <v>0.41733333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(B17,B18,B19)</f>
+        <v>0.4346666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>0.37</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(B20,B21,B22)</f>
+        <v>0.35399999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>0.501</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(B23,B24,B25)</f>
+        <v>0.48733333333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="C26">
+        <f>AVERAGE(B26,B27,B28)</f>
+        <v>0.45933333333333337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE(B29,B30,B31)</f>
+        <v>0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(B32,B33,B34)</f>
+        <v>0.35600000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>0.32</v>
+      </c>
+      <c r="C35">
+        <f>AVERAGE(B35,B36,B37)</f>
+        <v>0.33866666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="C38">
+        <f>AVERAGE(B38,B39,B40)</f>
+        <v>0.53133333333333332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C41">
+        <f>AVERAGE(B41,B42,B43)</f>
+        <v>0.4363333333333333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44">
+        <v>0.41</v>
+      </c>
+      <c r="C44">
+        <f>AVERAGE(B44,B45,B46)</f>
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="C47">
+        <f>AVERAGE(B47,B48,B49)</f>
+        <v>0.36999999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50" si="0">AVERAGE(B50,B51,B52)</f>
+        <v>0.39466666666666672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53" si="1">AVERAGE(B53,B54,B55)</f>
+        <v>0.38566666666666666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>0.443</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:C65" si="2">AVERAGE(B56,B57,B58)</f>
+        <v>0.38166666666666665</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="2"/>
+        <v>0.38633333333333336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>0.27</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="2"/>
+        <v>0.26133333333333331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="2"/>
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C74" si="3">AVERAGE(B68,B69,B70)</f>
+        <v>0.30066666666666664</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71">
+        <v>0.308</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>0.29966666666666669</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ref="C77:C140" si="4">AVERAGE(B77,B78,B79)</f>
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80">
+        <v>0.192</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="4"/>
+        <v>0.25333333333333335</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>41</v>
+      </c>
+      <c r="C113" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>42</v>
+      </c>
+      <c r="C116" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>45</v>
+      </c>
+      <c r="C125" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>47</v>
+      </c>
+      <c r="C131" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>50</v>
+      </c>
+      <c r="C140" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>51</v>
+      </c>
+      <c r="C143" t="e">
+        <f t="shared" ref="C143:C158" si="5">AVERAGE(B143,B144,B145)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C146" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>53</v>
+      </c>
+      <c r="C149" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>55</v>
+      </c>
+      <c r="C155" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>56</v>
+      </c>
+      <c r="C158" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
@@ -4559,12 +8413,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6573,7 +10427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H160"/>
   <sheetViews>
